--- a/DOM_Banner/output/dept_banner/Hong S Lee_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Hong S Lee_2023.xlsx
@@ -2686,7 +2686,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5011892284", "https://openalex.org/A5036252071", "https://openalex.org/A5051630057", "https://openalex.org/A5009287030", "https://openalex.org/A5051290699", "https://openalex.org/A5089490082", "https://openalex.org/A5085434872", "https://openalex.org/A5074915843", "https://openalex.org/A5051290699", "https://openalex.org/A5046278846", "https://openalex.org/A5048911959", "https://openalex.org/A5001916792", "https://openalex.org/A5048542701", "https://openalex.org/A5050891805"
-), au_display_name = c("Kyeongman Jeon", "Hong Seok Lee", "Jung‐Hee Jang", "Jeffrey Kwon", "Sang‐Won Kang", "Jeongeun Son", "Jinhyeong Kwon", "H W Cho", "Sang‐Won Kang", "Wei-Jei Lee", "Chang‐Hwan Yoon", "Jeong‐Wook Seo", "Tae‐Jin Youn", "In Ho Chae"), au_orcid = c("https://orcid.org/0000-0002-4822-1772", "https://orcid.org/0000-0002-1292-0731", "https://orcid.org/0000-0001-8242-4744", NA, "https://orcid.org/0009-0000-4156-1662", NA, "https://orcid.org/0000-0001-8862-7710", NA, "https://orcid.org/0009-0000-4156-1662", 
+), au_display_name = c("Kyeongman Jeon", "Hong Seok Lee", "Jung‐Hee Jang", "Jeffrey Kwon", "Sang‐Won Kang", "Jeongeun Son", "Jinhyeong Kwon", "H W Cho", "Sang‐Won Kang", "Wei-Jei Lee", "Chang–Hwan Yoon", "Jeong‐Wook Seo", "Tae‐Jin Youn", "In Ho Chae"), au_orcid = c("https://orcid.org/0000-0002-4822-1772", "https://orcid.org/0000-0002-1292-0731", "https://orcid.org/0000-0001-8242-4744", NA, "https://orcid.org/0009-0000-4156-1662", NA, "https://orcid.org/0000-0001-8862-7710", NA, "https://orcid.org/0009-0000-4156-1662", 
 "https://orcid.org/0000-0003-3267-4811", NA, "https://orcid.org/0000-0003-0242-1805", "https://orcid.org/0000-0001-9957-4204", NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)", "Sejong Hospital , Incheon , Korea (Republic of)", "Medical research team, Medical AI Inc , Seoul , Korea (Republic of)", 
 "Medical research team, Medical AI Inc , Seoul , Korea (Republic of)", "Medical research team, Medical AI Inc , Seoul , Korea (Republic of)", "Medical research team, Medical AI Inc , Seoul , Korea (Republic of)", "Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)", "Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)", "Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)", "Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)", 
 "Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)", "Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)", "Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)", "Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)"), institution_id = c("https://openalex.org/I2803058125", "https://openalex.org/I4210128866", NA, NA, NA, NA, "https://openalex.org/I2803058125", "https://openalex.org/I2803058125", "https://openalex.org/I2803058125", 

--- a/DOM_Banner/output/dept_banner/Hong S Lee_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Hong S Lee_2023.xlsx
@@ -2866,7 +2866,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5009091190", "https://openalex.org/A5072939345", "https://openalex.org/A5074518437", "https://openalex.org/A5019267455", "https://openalex.org/A5048092765", "https://openalex.org/A5045307614", "https://openalex.org/A5013910907", "https://openalex.org/A5016770074", "https://openalex.org/A5045019959", "https://openalex.org/A5076117734", "https://openalex.org/A5050051792", "https://openalex.org/A5089210583", "https://openalex.org/A5069686106", "https://openalex.org/A5009557248", 
-"https://openalex.org/A5068292757", "https://openalex.org/A5036252071", "https://openalex.org/A5005643933", "https://openalex.org/A5037685409", "https://openalex.org/A5020214792", "https://openalex.org/A5067241387"), au_display_name = c("Sejoon Lee", "Kil-Yong Lee", "Ji-Hwan Park", "Duck-Woo Kim", "Heung‐Kwon Oh", "Seong-Taek Oh", "Jongbum Jeon", "D. Lee", "Soobok Joe", "Howard Chu", "Ji-Sun Kang", "J. Jack Lee", "S. Cho", "Hyeran Shim", "Si-Cho Kim", "Hong Seok Lee", "Young-Joon Kim", "Jin Ok Yang", 
+"https://openalex.org/A5068292757", "https://openalex.org/A5036252071", "https://openalex.org/A5005643933", "https://openalex.org/A5037685409", "https://openalex.org/A5020214792", "https://openalex.org/A5067241387"), au_display_name = c("Sejoon Lee", "Kil-Yong Lee", "Ji-Hwan Park", "Duck-Woo Kim", "Heung‐Kwon Oh", "Seong-Taek Oh", "Jongbum Jeon", "D. Lee", "Soobok Joe", "Howard Chu", "Ji-Sun Kang", "J. Jack Lee", "S. Cho", "Hyeran Shim", "Si-Cho Kim", "Hong Seok Lee", "Young-Joon Kim", "Jin Yang", 
 "Jae Im Lee", "Sung Bum Kang"), au_orcid = c("https://orcid.org/0000-0001-9554-2328", "https://orcid.org/0000-0002-7949-0166", "https://orcid.org/0000-0002-6988-6239", "https://orcid.org/0000-0003-1934-9387", "https://orcid.org/0000-0002-8066-2367", "https://orcid.org/0000-0001-6351-6440", "https://orcid.org/0000-0003-3533-1363", NA, "https://orcid.org/0000-0003-2546-527X", "https://orcid.org/0000-0001-5061-5351", "https://orcid.org/0000-0001-6203-4175", "https://orcid.org/0000-0002-5366-7488", NA, 
 NA, NA, "https://orcid.org/0000-0002-1292-0731", "https://orcid.org/0000-0001-5061-587X", "https://orcid.org/0000-0002-3130-6091", "https://orcid.org/0000-0002-4074-3904", "https://orcid.org/0000-0002-9574-5069"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", 
 "", "", "", "", "", "Korea Bioinformation Center (KOBIC), Korea Research Institute of Bioscience and Biotechnology, Daejeon 34141, Korea.", "Department of Surgery, Uijeongbu St. Mary's Hospital, College of Medicine, The Catholic University of Korea, Uijeongbu 11765, Korea.", "Department of Surgery, Seoul National University Bundang Hospital, Seoul National University College of Medicine, Seongnam 13620, Korea."), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 

--- a/DOM_Banner/output/dept_banner/Hong S Lee_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Hong S Lee_2023.xlsx
@@ -1426,7 +1426,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kyeongman Jeon, Hong Seok Lee, Jung‐Hee Jang, Jeffrey Kwon, Sang‐Won Kang, Jeongeun Son, Jinhyeong Kwon, H W Cho, Sang‐Won Kang, Wei-Jei Lee, Chang–Hwan Yoon, Jeong‐Wook Seo, Tae‐Jin Youn, In Ho Chae</t>
+          <t>Kyeongman Jeon, Hong Seok Lee, Jung‐Hee Jang, Jeffrey Kwon, Sang–Won Kang, Jeongeun Son, Jinhyeong Kwon, H W Cho, Sang–Won Kang, Wei-Jei Lee, Chang‐Hwan Yoon, Jeong‐Wook Seo, Tae–Jin Youn, In Ho Chae</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Hong S Lee_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Hong S Lee_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Laboratory of Crop Production, Department of Applied Biosciences, Kyungpook National University, Daegu 41566, Republic of Korea; Crop Production Technology Research Division, National Institute of Crop Science, Rural Development Administration, Miryang 50424, Republic of Korea; Laboratory of Crop Production, Department of Applied Biosciences, Kyungpook National University, Daegu 41566, Republic of Korea; Laboratory of Crop Production, Department of Applied Biosciences, Kyungpook National University, Daegu 41566, Republic of Korea; Department of Plant Resources and Environment, Jeju National University, Jeju 63243, Republic of Korea; Crop Production Technology Research Division, National Institute of Crop Science, Rural Development Administration, Miryang 50424, Republic of Korea; Laboratory of Crop Production, Department of Applied Biosciences, Kyungpook National University, Daegu 41566, Republic of Korea</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321250919</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Evaluation of Soybean Wildfire Prediction via Hyperspectral Imaging</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Plants</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/plants12040901</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36840248</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/plants12040901</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Physics, Pohang University of Science and Technology (POSTECH), Pohang, Republic of Korea; Department of Physics, Pohang University of Science and Technology (POSTECH), Pohang, Republic of Korea; Department of Medical Engineering, California Institute of Technology (Caltech), Pasadena, USA; Meta Vision Lab, Samsung Advanced Institute of Technology (SAIT), Pasadena, USA; Institute of Advanced Composite Materials, Korea Institute of Science and Technology, Jeonbuk, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju, Republic of Korea; Center for Integrated Nanostructure Physics, Institute for Basic Science (IBS), Suwon, Republic of Korea; Department of Physics, Pohang University of Science and Technology (POSTECH), Pohang, Republic of Korea; Department of Physics, Pohang University of Science and Technology (POSTECH), Pohang, Republic of Korea; Meta Vision Lab, Samsung Advanced Institute of Technology (SAIT), Pasadena, CA, 91101, USA; Center for Integrated Nanostructure Physics, Institute for Basic Science (IBS), Suwon, 16419, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju, 54896, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju, Republic of Korea; Advanced Sensor Lab, Device Research Center, Samsung Advanced Institute of Technology (SAIT), Suwon, 16678, Republic of Korea; Department of Physics, Pohang University of Science and Technology (POSTECH), Pohang, 37673, Republic of Korea</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4365145682</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>All-optical control of high-purity trions in nanoscale waveguide</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Nature Communications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-023-37481-1</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37045823</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41467-023-37481-1</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Taesun Yun, Yong Bin Kim, Taegeon Lee, Heesuk Rho, Hyeongwoo Lee, Kyoung‐Duck Park, Hong Seok Lee, Sangmin An</t>
+          <t>Hee-Dae Kim, Sung Hun Kim, Hong Seok Lee</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310815612</t>
+          <t>School of Semiconductor Science &amp; Technology and Semiconductor Physics Research Center, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct 3D-printed CdSe quantum dots &lt;i&gt;via&lt;/i&gt; scanning micropipette</t>
+          <t>https://openalex.org/W4319794988</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Size Dependent Optical Properties of CdSe Nanocrystals at Low Temperature</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nanoscale advances</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Royal Society of Chemistry</t>
+          <t>Applied Science and Convergence Technology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/d2na00627h</t>
+          <t>Korean Vacuum Society</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.5757/asct.2023.32.1.16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36798505</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/d2na00627h</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5757/asct.2023.32.1.16</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hee-Dae Kim, Sung Hun Kim, Hong Seok Lee</t>
+          <t>Ming Mei, Minju Kim, Minwoo Kim, Inhong Kim, Hong Seok Lee, Robert A. Taylor, Kwangseuk Kyhm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319794988</t>
+          <t>Department of Optics &amp; Cogno-Mechatronics Engineering, Pusan National University, Busan 46241, Republic of Korea; Smart Gym-Based Translational Research Center for Active Senior’s Healthcare, Pukyong National University, Busan 48513, Republic of Korea; Department of Optics &amp; Cogno-Mechatronics Engineering, Pusan National University, Busan 46241, Republic of Korea; Department of Optics &amp; Cogno-Mechatronics Engineering, Pusan National University, Busan 46241, Republic of Korea; Department of Physics, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, University of Oxford, Oxford OX1 3PU, UK; Department of Optics &amp; Cogno-Mechatronics Engineering, Pusan National University, Busan 46241, Republic of Korea</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Size Dependent Optical Properties of CdSe Nanocrystals at Low Temperature</t>
+          <t>https://openalex.org/W4320497696</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>Optical Gain of Vertically Coupled Cd0.6Zn0.4Te/ZnTe Quantum Dots</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Applied Science and Convergence Technology</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Korean Vacuum Society</t>
+          <t>Nanomaterials</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5757/asct.2023.32.1.16</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3390/nano13040716</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5757/asct.2023.32.1.16</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36839084</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/nano13040716</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ming Mei, Minju Kim, Minwoo Kim, Inhong Kim, Hong Seok Lee, Robert A. Taylor, Kwangseuk Kyhm</t>
+          <t>Alireza Moradi, Jake Klewer, Hong Seok Lee</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4320497696</t>
+          <t>University of Arizona, Tucson, AZ, USA; University of Arizona, Tucson, AZ, USA; University of Arizona, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Optical Gain of Vertically Coupled Cd0.6Zn0.4Te/ZnTe Quantum Dots</t>
+          <t>https://openalex.org/W4323039430</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>FLECAINIDE-INDUCED ATRIAL FLUTTER WITH RAPID CONDUCTION MIMICKING VENTRICULAR TACHYCARDIA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nanomaterials</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/nano13040716</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/s0735-1097(23)03609-4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36839084</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/nano13040716</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)03609-4</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alireza Moradi, Jake Klewer, Hong Seok Lee</t>
+          <t>Taesun Yun, Yong Bin Kim, Taegeon Lee, Heesuk Rho, Hyeongwoo Lee, Kyoung‐Duck Park, Hong Seok Lee, Sangmin An</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323039430</t>
+          <t>Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Pohang University of Science and Technology (POSTECH), Pohang 37673, Republic of Korea; Department of Physics, Pohang University of Science and Technology (POSTECH), Pohang 37673, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FLECAINIDE-INDUCED ATRIAL FLUTTER WITH RAPID CONDUCTION MIMICKING VENTRICULAR TACHYCARDIA</t>
+          <t>https://openalex.org/W4310815612</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>Direct 3D-printed CdSe quantum dots &lt;i&gt;via&lt;/i&gt; scanning micropipette</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Nanoscale advances</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03609-4</t>
+          <t>Royal Society of Chemistry</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1039/d2na00627h</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>cc-by-nc</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)03609-4</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36798505</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/d2na00627h</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Research Institute of Physics and Chemistry, Jeonbuk National University; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju, Republic of Korea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317745816</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Effects of ligand molar ratio on optical properties of CdSe quantum dots</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-01-23</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of the Korean Physical Society</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40042-023-00732-x</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40042-023-00732-x</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Epidemiology, Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences, Little Rock, AR; Winthrop P. Rockefeller Cancer Institute, University of Arkansas for Medical Sciences, Little Rock, AR; Department of Family Medicine, College of Medicine, Hallym University Kangdong Sacred Heart Hospital, Seoul, Republic of Korea; Department of Medicine, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea; Department of Family Medicine, College of Medicine, Hallym University Dongtan Sacred Heart Hospital, Hwaseong, Republic of Korea; Department of Biostatistics, College of Medicine, The Catholic University of Korea, Seoul, Republic of Korea; Cardio-Oncology Program, Division of Cardiology, Department of Internal Medicine, University of Pennsylvania, Philadelphia, PA; Winthrop P. Rockefeller Cancer Institute, University of Arkansas for Medical Sciences, Little Rock, AR; Division of Cardiology, Department of Medicine, University of Arkansas for Medical Sciences Little Rock, AR; Department of Biology &amp; Department of Math and Computer Science, University of Arkansas at Pine Bluff, AR; Division of Cardiology, Sarver Heart Center, Banner University Medical Group, University of Arizona, Tucson, AZ; Division of Echocardiography, Department of Cardiovascular Medicine, Mayo Clinic, Phoenix, Arizona; Winthrop P. Rockefeller Cancer Institute, University of Arkansas for Medical Sciences, Little Rock, AR; Division of Cardiology, Department of Medicine, University of Arkansas for Medical Sciences Little Rock, AR; Winthrop P. Rockefeller Cancer Institute, University of Arkansas for Medical Sciences, Little Rock, AR; Department of Epidemiology, Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences, Little Rock, AR; Winthrop P. Rockefeller Cancer Institute, University of Arkansas for Medical Sciences, Little Rock, AR; Department of Statistics and Actuarial Science, Soongsil University, Seoul, Republic of Korea; Department of Clinical Research Design &amp; Evaluation, Samsung Advanced Institute for Health Science &amp; Technology (SAIHST), Sungkyunkwan University, Seoul, Republic of Korea; Department of Family Medicine and Supportive Care Center, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385334353</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Mid- and long-term risk of atrial fibrillation among breast cancer surgery survivors</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-07-28</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.07.26.23293184</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.07.26.23293184</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Epidemiology, Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences, Little Rock, AR; Winthrop P. Rockefeller Cancer Institute, University of Arkansas for Medical Sciences, Little Rock, AR; Department of Internal Medicine, Gyeongsang National University Changwon Hospital, Gyeongsang National University College of Medicine, Changwon, South Korea; University of Arizona, Department of Medicine; Department of Public Health Sciences, University of Miami Miller School of Medicine; Department of Health Policy and Management, Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences; Department of Medicine, College of Medicine, University of Arkansas for Medical Sciences, Little Rock, AR; Winthrop P. Rockefeller Cancer Institute, University of Arkansas for Medical Sciences, Little Rock, AR; Department of Medicine, College of Medicine, University of Arkansas for Medical Sciences; Division of Endocrinology and Metabolism, Department of Internal Medicine, St. Vincent Hospital, College of Medicine, The Catholic University of Korea; Department of Medicine, College of Medicine, University of Arkansas for Medical Sciences; Department of Health Policy and Management, Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences; Department of Epidemiology, Fay W. Boozman College of Public Health, University of Arkansas for Medical Sciences, Little Rock, AR; Winthrop P. Rockefeller Cancer Institute, University of Arkansas for Medical Sciences, Little Rock, AR; Division of Endocrinology and Metabolism, Department of Internal Medicine, College of Medicine, The Catholic University of Korea, Seoul, South Korea; Department of Statistics and Actuarial Science, Soongsil University</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387246452</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Longitudinal associations of sustained low or high income and income variability with incident cardiovascular disease in individuals with type 2 diabetes: a retrospective population-based cohort study</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-10-02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.09.29.23296223</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.09.29.23296223</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Matthew J. Budoff, Hong Seok Lee, Sion K. Roy, Chandana Shekar</t>
+          <t>Sangmin An, Hong Seok Lee, Hye Min Oh, Heesuk Rho</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387650626</t>
+          <t>Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju, 54896 South Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju, 54896 South Korea; Department of Physics, Kunsan National University, Kunsan, 54150 South Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju, 54896 South Korea</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Efficacy and Safety of Iodixanol in Computed Coronary Tomographic Angiography and Cardiac Catheterization</t>
+          <t>https://openalex.org/W4387908767</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>Explanation of the Atomic Force Microscope‐Based Nanoscale 3D Printing of Quantum Dots</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>physica status solidi (b) basic solid state physics</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Wiley</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/pssb.202300358</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.20944/preprints202310.0692.v1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.20944/preprints202310.0692.v1</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/pssb.202300358</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sangmin An, Hong Seok Lee, Hye Min Oh, Heesuk Rho</t>
+          <t>Sejoon Lee, Kil-Yong Lee, Ji-Hwan Park, Duck-Woo Kim, Heung‐Kwon Oh, Seong-Taek Oh, Jongbum Jeon, D. Lee, Soobok Joe, Howard Chu, Ji-Sun Kang, J. Jack Lee, S. Cho, Hyeran Shim, Si-Cho Kim, Hong Seok Lee, Young-Joon Kim, Jin Yang, Jae Im Lee, Sung Bum Kang</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387908767</t>
+          <t>; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Korea Bioinformation Center (KOBIC), Korea Research Institute of Bioscience and Biotechnology, Daejeon 34141, Korea.; Department of Surgery, Uijeongbu St. Mary's Hospital, College of Medicine, The Catholic University of Korea, Uijeongbu 11765, Korea.; Department of Surgery, Seoul National University Bundang Hospital, Seoul National University College of Medicine, Seongnam 13620, Korea.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Explanation of the Atomic Force Microscope‐Based Nanoscale 3D Printing of Quantum Dots</t>
+          <t>https://openalex.org/W4388706809</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>Exploring the DNA methylome of Korean patients with colorectal cancer consolidates the clinical implications of cancer-associated methylation markers.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>physica status solidi (b) basic solid state physics</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>PubMed</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pssb.202300358</t>
+          <t>National Institutes of Health</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37964634</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37964634</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/pssb.202300358</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388078136</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4387650626</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Efficacy and Safety of Iodixanol in Computed Coronary Tomographic Angiography and Cardiac Catheterization</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2023-10-31</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Journal of Cardiovascular Development and Disease</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jcdd10110449</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.20944/preprints202310.0692.v1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37998507</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jcdd10110449</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.20944/preprints202310.0692.v1</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kyeongman Jeon, Hong Seok Lee, Jung‐Hee Jang, Jeffrey Kwon, Sang–Won Kang, Jeongeun Son, Jinhyeong Kwon, H W Cho, Sang–Won Kang, Wei-Jei Lee, Chang‐Hwan Yoon, Jeong‐Wook Seo, Tae–Jin Youn, In Ho Chae</t>
+          <t>Matthew J. Budoff, Hong Seok Lee, Sion K. Roy, Chandana Shekar</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388596356</t>
+          <t>Department of Cardiology, Lundquist Institute, Harbor-UCLA Medical Center, 1124 W Carson Street, Torrance, CA 90502, USA; Mayo Clinic, Cardiology, Phoenix, AZ 85054, USA; Department of Cardiology, Lundquist Institute, Harbor-UCLA Medical Center, 1124 W Carson Street, Torrance, CA 90502, USA; Department of Cardiology, College of Medicine, Banner-University of Arizona, 1111 E McDowell Road, Phoenix, AZ 85006, USA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Artificial intelligence-derived ECG bio-index as a tool for predicting the prognosis of patients with ST-segment elevation myocardial infarction underwent primary percutaneous coronary intervention</t>
+          <t>https://openalex.org/W4388078136</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>Efficacy and Safety of Iodixanol in Computed Coronary Tomographic Angiography and Cardiac Catheterization</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>European Heart Journal</t>
+          <t>2023-10-31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Journal of Cardiovascular Development and Disease</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/eurheartj/ehad655.2928</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3390/jcdd10110449</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/eurheartj/ehad655.2928</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37998507</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/jcdd10110449</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sejoon Lee, Kil-Yong Lee, Ji-Hwan Park, Duck-Woo Kim, Heung‐Kwon Oh, Seong-Taek Oh, Jongbum Jeon, D. Lee, Soobok Joe, Howard Chu, Ji-Sun Kang, J. Jack Lee, S. Cho, Hyeran Shim, Si-Cho Kim, Hong Seok Lee, Young-Joon Kim, Jin Yang, Jae Im Lee, Sung Bum Kang</t>
+          <t>Kyeongman Jeon, Hong Seok Lee, Jung‐Hee Jang, Jeffrey Kwon, Sang‐Won Kang, Jeongeun Son, Jinhyeong Kwon, H W Cho, Sang‐Won Kang, Wei-Jei Lee, Chang‐Hwan Yoon, Jeong‐Wook Seo, Tae‐Jin Youn, In Ho Chae</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388706809</t>
+          <t>Seoul National University Bundang Hospital , Seongnam , Korea (Republic of); Sejong Hospital , Incheon , Korea (Republic of); Medical research team, Medical AI Inc , Seoul , Korea (Republic of); Medical research team, Medical AI Inc , Seoul , Korea (Republic of); Medical research team, Medical AI Inc , Seoul , Korea (Republic of); Medical research team, Medical AI Inc , Seoul , Korea (Republic of); Seoul National University Bundang Hospital , Seongnam , Korea (Republic of); Seoul National University Bundang Hospital , Seongnam , Korea (Republic of); Seoul National University Bundang Hospital , Seongnam , Korea (Republic of); Seoul National University Bundang Hospital , Seongnam , Korea (Republic of); Seoul National University Bundang Hospital , Seongnam , Korea (Republic of); Seoul National University Bundang Hospital , Seongnam , Korea (Republic of); Seoul National University Bundang Hospital , Seongnam , Korea (Republic of); Seoul National University Bundang Hospital , Seongnam , Korea (Republic of)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Exploring the DNA methylome of Korean patients with colorectal cancer consolidates the clinical implications of cancer-associated methylation markers.</t>
+          <t>https://openalex.org/W4388596356</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>Artificial intelligence-derived ECG bio-index as a tool for predicting the prognosis of patients with ST-segment elevation myocardial infarction underwent primary percutaneous coronary intervention</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PubMed</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>National Institutes of Health</t>
+          <t>European Heart Journal</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37964634</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1093/eurheartj/ehad655.2928</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37964634</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/eurheartj/ehad655.2928</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
